--- a/upload/temp/test.xlsx
+++ b/upload/temp/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C694A1-5FE3-4865-AA8C-A2B22C829CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A5571-BAB5-4C72-9410-954CB23C3502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+  <si>
+    <t>TITAN系统</t>
+  </si>
+  <si>
+    <t>htwdcdms模块</t>
+  </si>
+  <si>
+    <t>htwdcdms_metrics查询</t>
+  </si>
+  <si>
+    <t>http://192.168.129.181:9002/htwdcdms/metrics/search</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"epToken":"UT-114680-UjLUOfxbSZzyW5qTaAX3aiv24W5thhfpW2SWbayn3W5wSVtZRQ","debug-user":"yfsun"}</t>
+  </si>
+  <si>
+    <t>{"code":50002,"errorCode":"userNoFind","errorInfo":"用户不存在","flag":"F","message":"泰坦鉴权异常","source":"gateway"}</t>
+  </si>
+  <si>
+    <t>{"code":50002,"errorCode":"userNoFind","errorInfo":"用户不存在","flag":"F","message":"泰坦鉴权异常","source":"gateway","traceId":"ac112a01161285633891922881758"}</t>
+  </si>
+  <si>
+    <t>OBJECT_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>OBJECT_MODULE_NAME</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_NUM</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_NAME</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_REQUESTADDRESS</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_REQUESTMETHOD</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_REQUESTHEADER</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_REQUESTPARA</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_EXPECTEDRESULT</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_ACTUALRESULT</t>
+  </si>
+  <si>
+    <t>API_TESTCASE_REMARK</t>
+  </si>
+  <si>
+    <t>htwdcdms_CASE_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>age</t>
+    <t>htwdcdms_用例_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zz</t>
+    <t>htwdcdms_CASE_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qq</t>
+    <t>htwdcdms_用例_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>htwdcdms_CASE_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>htwdcdms_用例_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,8 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,37 +439,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
